--- a/biology/Botanique/Éric_de_Rothschild/Éric_de_Rothschild.xlsx
+++ b/biology/Botanique/Éric_de_Rothschild/Éric_de_Rothschild.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_de_Rothschild</t>
+          <t>Éric_de_Rothschild</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric de Rothschild, né le 3 octobre 1940, est un entrepreneur français, président du Mémorial de la Shoah depuis son ouverture en 2005, et engagé dans la lutte contre l'antisémitisme depuis 2001[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric de Rothschild, né le 3 octobre 1940, est un entrepreneur français, président du Mémorial de la Shoah depuis son ouverture en 2005, et engagé dans la lutte contre l'antisémitisme depuis 2001.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_de_Rothschild</t>
+          <t>Éric_de_Rothschild</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,88 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric de Rothschild est le fils d'Alain de Rothschild (1910-1982), de la branche de Paris de la famille Rothschild, et de Mary Chauvin du Treuil.
 De 1975 à 2018, il détient les rênes du château Lafite Rothschild. Il a succédé à son oncle, Élie de Rothschild, qui occupa ce poste de 1946 à 1974.
-Il est cité dans l'affaire des Panama Papers en avril 2016[2].
-Engagements
-Engagé en faveur du développement des banlieues, dès 2007, il est l'un des tout premiers chefs d'entreprise à apporter son soutien à Business Angels des Cités, le premier fonds d'investissement destiné aux entreprises de banlieue initié par Ofer Bronchtein.
-Éric de Rothschild est le président d'honneur de la Grande synagogue de Paris[3] et le président de la Fondation de Rothschild[4] (établissements sanitaires et sociaux en Île-de-France).
-Fortune
-Éric de Rothschild et sa famille sont classés 102e au classement des plus grosses fortunes de France établi par le magazine Challenges, avec une fortune estimée à 525 millions d'euros en 2013[5].
+Il est cité dans l'affaire des Panama Papers en avril 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Éric_de_Rothschild</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_de_Rothschild</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Engagements</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engagé en faveur du développement des banlieues, dès 2007, il est l'un des tout premiers chefs d'entreprise à apporter son soutien à Business Angels des Cités, le premier fonds d'investissement destiné aux entreprises de banlieue initié par Ofer Bronchtein.
+Éric de Rothschild est le président d'honneur de la Grande synagogue de Paris et le président de la Fondation de Rothschild (établissements sanitaires et sociaux en Île-de-France).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éric_de_Rothschild</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_de_Rothschild</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fortune</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric de Rothschild et sa famille sont classés 102e au classement des plus grosses fortunes de France établi par le magazine Challenges, avec une fortune estimée à 525 millions d'euros en 2013.
 </t>
         </is>
       </c>
